--- a/Server/Data/Snapshot.xlsx
+++ b/Server/Data/Snapshot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KING/Desktop/GitHub/GolfProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00749E6D-E82B-1341-B7F0-35EA5524113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586D958-C92A-E642-B7C9-98C113EAFD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F762213E-66C9-FD4B-82AA-8E98B18D4415}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Current Ranking</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Top 10s</t>
-  </si>
-  <si>
-    <t>Stinkers</t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450B7738-E96F-E64F-8173-8B76E0751E5A}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +463,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
